--- a/Review.xlsx
+++ b/Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentiunict-my.sharepoint.com/personal/lvlndr85r16b428p_studium_unict_it/Documents/Desktop/Tennis-R-ecord-Tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{F61D2585-453A-4ACF-A9AD-D01379C0FB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5585C4FA-BB5F-4904-BA67-D54086CAEC75}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{F61D2585-453A-4ACF-A9AD-D01379C0FB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{669471CC-F250-4F12-9EC1-A4A4F803CA45}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -663,9 +663,6 @@
     <t>GamesLostRouteTo</t>
   </si>
   <si>
-    <t>TimePlayedRouteTo</t>
-  </si>
-  <si>
     <t>MostAcesBySlammerinASlam</t>
   </si>
   <si>
@@ -748,6 +745,9 @@
   </si>
   <si>
     <t>Top5OutinR128R64</t>
+  </si>
+  <si>
+    <t>MinutesSpentRouteTo</t>
   </si>
 </sst>
 </file>
@@ -1165,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1290,13 +1290,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>23</v>
@@ -1348,7 +1348,7 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="5"/>
@@ -1566,7 +1566,7 @@
         <v>143</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J18" s="3"/>
     </row>
@@ -1578,7 +1578,7 @@
         <v>147</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -1590,7 +1590,7 @@
         <v>148</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J20" s="2"/>
     </row>
@@ -1602,7 +1602,7 @@
         <v>149</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J21" s="3"/>
     </row>
@@ -1662,7 +1662,7 @@
         <v>151</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J23" s="3"/>
     </row>
@@ -1689,7 +1689,7 @@
         <v>152</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J24" s="3"/>
     </row>
@@ -1713,10 +1713,10 @@
         <v>97</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J25" s="2"/>
     </row>
@@ -1740,10 +1740,10 @@
         <v>98</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J26" s="2"/>
     </row>
@@ -1819,7 +1819,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -1881,14 +1881,14 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
@@ -1903,10 +1903,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>100</v>
@@ -1931,7 +1931,7 @@
         <v>120</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>101</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D53" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D56" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
@@ -2047,7 +2047,7 @@
         <v>206</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
@@ -2057,7 +2057,7 @@
         <v>168</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>121</v>
@@ -2084,7 +2084,7 @@
         <v>207</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
@@ -2097,10 +2097,10 @@
         <v>190</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
@@ -2113,7 +2113,7 @@
         <v>198</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
